--- a/R/data/jc_farms_transaction_data_20250403.xlsx
+++ b/R/data/jc_farms_transaction_data_20250403.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Parking Lot\Web Projects\jc-farms\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE946604-3F2A-4056-8D14-F0A65F2B7DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD05CCF5-759B-4A53-8BC9-D2341AE42507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JC Poultry Farm - Transactio..." sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3233,11 +3246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q221" sqref="Q221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
